--- a/Plasma_Pipette_Issue and ECO list.xlsx
+++ b/Plasma_Pipette_Issue and ECO list.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Issue list_Proto" sheetId="1" r:id="rId1"/>
-    <sheet name="Issue list" sheetId="3" r:id="rId2"/>
-    <sheet name="ECO list_Pipette V1.0" sheetId="2" r:id="rId3"/>
-    <sheet name="ECO list_Transformer V2.0" sheetId="4" r:id="rId4"/>
+    <sheet name="Issue list_Pipette" sheetId="3" r:id="rId2"/>
+    <sheet name="Issue list_JTAG" sheetId="5" r:id="rId3"/>
+    <sheet name="ECO list_Pipette V1.0" sheetId="2" r:id="rId4"/>
+    <sheet name="ECO list_Transformer V2.0" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -512,11 +513,52 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Plasma Pipette Issue list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>난연성, 실리콘 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debugging용 RS-232 지원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCH/PCB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debugging용 RS-232 지원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추후 양산을 고려하여 외부 전원 CON에 JTAG 및 RS-232 Pin 할당</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma Pipette V1.0 Issue list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma Pipette JTAG V1.0 Issue list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4의 Pin이 역순으로 되어 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0에서는 Bottom에 soldering
+V2.0 회로 수정 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V만 인가된 상태에서 5V LED도 On됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diode 추가 필요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -850,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,6 +1085,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2031,9 +2094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2052,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2184,7 +2247,7 @@
         <v>105</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I8" s="54"/>
     </row>
@@ -2195,10 +2258,16 @@
       <c r="C9" s="51">
         <v>43236</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
+      <c r="G9" s="52" t="s">
+        <v>107</v>
+      </c>
       <c r="H9" s="53"/>
       <c r="I9" s="54"/>
     </row>
@@ -2480,10 +2549,443 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="65.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="48.25" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="65">
+        <v>1</v>
+      </c>
+      <c r="C4" s="66">
+        <v>43244</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="66"/>
+      <c r="G4" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="70"/>
+    </row>
+    <row r="5" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5" s="50">
+        <v>2</v>
+      </c>
+      <c r="C5" s="51">
+        <v>43244</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="54"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="50">
+        <v>3</v>
+      </c>
+      <c r="C6" s="51">
+        <v>43244</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="54"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="50">
+        <v>4</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="50">
+        <v>5</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="50">
+        <v>6</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="50">
+        <v>7</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="50">
+        <v>8</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="50">
+        <v>9</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="50">
+        <v>10</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="50">
+        <v>11</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="50">
+        <v>12</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="50">
+        <v>13</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="50">
+        <v>14</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="50">
+        <v>15</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="50">
+        <v>16</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="50">
+        <v>17</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="50">
+        <v>18</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="50">
+        <v>19</v>
+      </c>
+      <c r="C22" s="51"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="50">
+        <v>20</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="50">
+        <v>21</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="50">
+        <v>22</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="50">
+        <v>23</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="50">
+        <v>24</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="50">
+        <v>25</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="4">
+        <v>28</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="41"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2932,7 +3434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I33"/>
   <sheetViews>

--- a/Plasma_Pipette_Issue and ECO list.xlsx
+++ b/Plasma_Pipette_Issue and ECO list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Issue list_Proto" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="ECO list_Pipette V1.0" sheetId="2" r:id="rId4"/>
     <sheet name="ECO list_Transformer V2.0" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="122">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -559,6 +559,25 @@
   </si>
   <si>
     <t>Diode 추가 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2, #5 sample booting 불량
+ - #2 : booting 후 10초정도 후 Off됨
+ - #5 : Booting 후 바로 Off됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2 : R7 solder 불량 - Battery ADC line
+#5 : R1 solder 불량 - Battery Temp line</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1106,6 +1125,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2094,7 +2128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
@@ -2271,17 +2305,29 @@
       <c r="H9" s="53"/>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="50">
+    <row r="10" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="72">
         <v>7</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="C10" s="73">
+        <v>43251</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="73">
+        <v>43251</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="76"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="50">
@@ -2551,7 +2597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
